--- a/formatos/formato-materia-prima.xlsx
+++ b/formatos/formato-materia-prima.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\tezliksoftware\htdocs\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5C54E3-93F6-4FE6-821A-6098D9C0FFF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DE420E-24CC-4B28-90EE-A993D505EEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiales" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,8 +75,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,12 +93,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,30 +110,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,183 +478,86 @@
   <sheetPr codeName="Hoja1">
     <tabColor theme="3" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" style="9"/>
+    <col min="1" max="1" width="19.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11" style="4"/>
+    <col min="3" max="3" width="11" style="6"/>
+    <col min="4" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
+      <c r="H14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/formatos/formato-materia-prima.xlsx
+++ b/formatos/formato-materia-prima.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\tezliksoftware\htdocs\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\Tezlik\htdocs\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DE420E-24CC-4B28-90EE-A993D505EEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3EDD69-7FB4-4D45-AA59-2E3EEC632106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiales" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Unidad</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Materia Prima</t>
+  </si>
+  <si>
+    <t>Referencia</t>
   </si>
 </sst>
 </file>
@@ -484,20 +487,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11" style="4"/>
+    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="6"/>
     <col min="4" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -562,8 +568,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>